--- a/biology/Botanique/Aechmea_recurvata/Aechmea_recurvata.xlsx
+++ b/biology/Botanique/Aechmea_recurvata/Aechmea_recurvata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea recurvata est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre en Amérique du Sud.
 </t>
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea ampullacea Mez[1] ;
-Aechmea ampullacea var. longifolia Hassl.[1] ;
-Aechmea legrelliana (Baker) Baker[1] ;
-Aechmea recurvata var. albobracteata Strehl[1] ;
-Aechmea recurvata var. recurvata[1] ;
-Billbergia legrelliana Baker[1] ;
-Billbergia legrelloe E.Morren[1] ;
-Hohenbergia legrelliana Baker[1] ;
-Macrochordion recurvatum Klotzsch[1] ;
-Macrochordium recurvata Klotzsch[1] ;
-Ortgiesia legrelliana (Baker) Baker[1] ;
-Ortgiesia palleolata E.Morren[1] ;
-Ortgiesia recurvata (Klotzsch) L.B.Sm. &amp; W.J.Kress[1] ;
-Ortgiesia tillandsioides var. subexserta Regel[1] ;
-Portea legrelliana (Baker) G.Nicholson[1].
+Aechmea ampullacea Mez ;
+Aechmea ampullacea var. longifolia Hassl. ;
+Aechmea legrelliana (Baker) Baker ;
+Aechmea recurvata var. albobracteata Strehl ;
+Aechmea recurvata var. recurvata ;
+Billbergia legrelliana Baker ;
+Billbergia legrelloe E.Morren ;
+Hohenbergia legrelliana Baker ;
+Macrochordion recurvatum Klotzsch ;
+Macrochordium recurvata Klotzsch ;
+Ortgiesia legrelliana (Baker) Baker ;
+Ortgiesia palleolata E.Morren ;
+Ortgiesia recurvata (Klotzsch) L.B.Sm. &amp; W.J.Kress ;
+Ortgiesia tillandsioides var. subexserta Regel ;
+Portea legrelliana (Baker) G.Nicholson.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans le nord-est de l'Argentine, dans l'État de São Paulo au Brésil, au Paraguay et en Uruguay[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans le nord-est de l'Argentine, dans l'État de São Paulo au Brésil, au Paraguay et en Uruguay.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
